--- a/data/CreateLead.xlsx
+++ b/data/CreateLead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\makaia_framework-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF329EC2-69AF-4EA6-AD60-201466AE7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B0196-9DC4-4A5A-813D-2D8EF7944B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>Testleaf</t>
   </si>
   <si>
-    <t>Java@2025</t>
-  </si>
-  <si>
     <t>leadName</t>
+  </si>
+  <si>
+    <t>Qeagle@2025</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
